--- a/tellen buren.xlsx
+++ b/tellen buren.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="40" windowWidth="8000" windowHeight="16320" tabRatio="500"/>
+    <workbookView xWindow="8340" yWindow="40" windowWidth="8000" windowHeight="16320" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SN" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="67">
   <si>
     <t>mercer 0</t>
   </si>
@@ -226,10 +227,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -252,13 +269,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -590,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1134,6 +1159,567 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:C67">
+    <sortCondition descending="1" ref="C1:C67"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
